--- a/excel/GameData.xlsx
+++ b/excel/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="12880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="equipConfig" sheetId="1" r:id="rId1"/>
@@ -7621,7 +7621,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7886,7 +7886,9 @@
         <v>1</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10">
